--- a/OpenCart-Test-Cases-Execution.xlsx
+++ b/OpenCart-Test-Cases-Execution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4b85abe1dd47c73/Desktop/OpenCart testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4b85abe1dd47c73/Desktop/kk/OpenCart-testing-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_F25DC773A252ABDACC1048EAF11C476A5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD139B5E-1E9F-44A3-88EC-FE9B873D8B54}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_F25DC773A252ABDACC1048EAF11C476A5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAEDD7CE-51B1-4845-AB43-57863D3DF7FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register Functionality" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Logout Functionality" sheetId="3" r:id="rId3"/>
     <sheet name="Forgot Functionality" sheetId="4" r:id="rId4"/>
     <sheet name="Search Functionality" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="Add to Cart Functionality" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="515">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1794,6 +1794,139 @@
   </si>
   <si>
     <t>OPENCART-BUG-10</t>
+  </si>
+  <si>
+    <t>TC_ATC_001</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from 'Product Display' Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button in the displayed 'Product Display' page (Validate ER-1)
+5. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>1. Success message with text - 'Success: You have added Product Name to your shopping cart!' should be displayed
+2. Product should be successfully displayed in the 'Shopping Cart' page</t>
+  </si>
+  <si>
+    <t>Working as mentioned in the Expected Result section</t>
+  </si>
+  <si>
+    <t>TC_ATC_002</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from 'Wish List' Page</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL and Login
+2. A product is added to Wish List page  - &lt;Refer Test Data&gt;</t>
+  </si>
+  <si>
+    <t>1. Click on 'Wish List' header option 
+2. Click on 'Add to Cart' icon option in the displayed 'My Wish List' page (Validate ER-1)
+3. Click on 'Shopping Cart' header option (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_003</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from Search Results Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on 'Add to Cart' option on the product that is displayed in the Search Results (Validate ER-1)
+4. Click on 'Cart' button which is in black color beside the search icon button on the top of the page
+5. Click on 'View Cart' option in the displayed box (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_004</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from the Related Products section of the Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button on one of the Products displayed in the Related Products section of the displayed 'Product Display' page (Validate ER-1)
+5. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>Product Name: Apple Cinema 30"</t>
+  </si>
+  <si>
+    <t>TC_ATC_005</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from the Products displayed in the category or sub-category page</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse on any of the menu option say 'Desktops'
+2. Click on 'Show All Desktops' option 
+3. Select 'Mac' subcategory option from the left side options 
+4. Click on 'Add to Cart' button that is availble on any of the Products of the displayed Category or Sub-category pages (Validate ER-1)
+5. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_006</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from the Products displayed in the 'Featured' section of Home page</t>
+  </si>
+  <si>
+    <t>1. Click on 'Add to Cart' button on the product that is displayed in the 'Featured' section of the Home page (Validate ER-1)
+2. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_007</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from 'Product Comparison' Page</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL
+2. A product is added to Product Comparison page  - &lt;Refer Test Data&gt;</t>
+  </si>
+  <si>
+    <t>1. Click on 'Add to Cart' button on the product that is displayed in the 'Product Comparison' page (Validate ER-1)
+2. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_008</t>
+  </si>
+  <si>
+    <t>Validate the UI of 'Add to Cart' funtionality</t>
+  </si>
+  <si>
+    <t>1. Check the UI of the functioanality related to 'Add to Cart' (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name: iMac
+</t>
+  </si>
+  <si>
+    <t>1. Proper UI adhering to the UI checklist should be displayed for the 'Add to Cart' functionality</t>
+  </si>
+  <si>
+    <t>TC_ATC_009</t>
+  </si>
+  <si>
+    <t>Validate the 'Add to Cart' page functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>1. Check the 'Add to Cart' functionality in all the supported environments (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. 'Add to Cart' functionality should work correctly in all the supported environments</t>
+  </si>
+  <si>
+    <t>(TS_006)
+Add to Cart</t>
   </si>
 </sst>
 </file>
@@ -2017,7 +2150,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4017,16 +4178,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J24">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4454,16 +4615,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J12">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4893,16 +5054,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J12">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4919,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5B4B4E-434F-4BF5-B005-B56BD147FC93}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,6 +5842,377 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J23">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J23" xr:uid="{31873D3F-86B7-44D7-AAC6-30E148087ADA}">
+      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8238E694-E10E-4035-A712-71FBA4E464FB}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J2:J10">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
@@ -5695,22 +6227,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J23" xr:uid="{31873D3F-86B7-44D7-AAC6-30E148087ADA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J10" xr:uid="{FA900DEB-A3F7-4B11-A661-B23DD2D6DE3B}">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8238E694-E10E-4035-A712-71FBA4E464FB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>